--- a/mysol/leetcode_categories.xlsx
+++ b/mysol/leetcode_categories.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6EF0D7-639B-2D4B-BC90-5235434C7054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A3C46-3EB2-6544-8FC6-5EE8AF10E589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1760" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13780" yWindow="3840" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +338,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,6 +459,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +780,7 @@
   <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -805,8 +816,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
